--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Documents\media-scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E527BA-AB9F-4887-AB79-1448DD630FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D211B-4E15-4806-965F-17EBC111CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EEE6491E-1B77-4758-B57B-2A1BEC52202F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEE6491E-1B77-4758-B57B-2A1BEC52202F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>テストケースID</t>
   </si>
@@ -271,6 +271,21 @@
   <si>
     <t>該当する作品が存在しないため、
 「検索結果が見つかりませんでした」といったメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows11/ Chrome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -347,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +371,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6A0179-86F8-45E2-A769-DBA0A5124272}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -685,6 +706,7 @@
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
     <col min="5" max="5" width="72.19921875" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -735,6 +757,18 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -752,6 +786,18 @@
       <c r="E3" t="s">
         <v>49</v>
       </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -769,6 +815,18 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -786,8 +844,20 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I5" t="s">
         <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -806,6 +876,18 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -823,6 +905,18 @@
       <c r="E7" t="s">
         <v>57</v>
       </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -840,8 +934,20 @@
       <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -856,6 +962,18 @@
       </c>
       <c r="E9" t="s">
         <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.45">
@@ -874,6 +992,18 @@
       <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -890,6 +1020,18 @@
       </c>
       <c r="E11" t="s">
         <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45698</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
